--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,60 +40,57 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -118,82 +115,79 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>right</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>right</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
     <t>twitter</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>media</t>
+    <t>watch</t>
   </si>
   <si>
     <t>dilemma</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>’</t>
@@ -560,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -679,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9375</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,49 +773,49 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>0.7543859649122807</v>
+      </c>
+      <c r="L6">
+        <v>43</v>
+      </c>
+      <c r="M6">
+        <v>43</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>14</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6">
-        <v>0.7719298245614035</v>
-      </c>
-      <c r="L6">
-        <v>44</v>
-      </c>
-      <c r="M6">
-        <v>44</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.7066666666666667</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8947368421052632</v>
+        <v>0.8125</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.6551724137931034</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,37 +923,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.875</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9">
-        <v>35</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K9">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8235294117647058</v>
+        <v>0.725</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10">
         <v>0.631578947368421</v>
@@ -1029,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.5454545454545454</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6956521739130435</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,28 +1094,28 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.5185185185185185</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L12">
+        <v>19</v>
+      </c>
+      <c r="M12">
+        <v>19</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>14</v>
-      </c>
-      <c r="M12">
-        <v>14</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1173,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>0.4375</v>
@@ -1229,13 +1223,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6153846153846154</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>0.3728813559322034</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1273,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.3060109289617486</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L16">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>762</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.2926829268292683</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>765</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,38 +1373,38 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5357142857142857</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L18">
         <v>15</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>15</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>13</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>0.2622950819672131</v>
-      </c>
-      <c r="L18">
-        <v>16</v>
-      </c>
-      <c r="M18">
-        <v>16</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -1421,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5106382978723404</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>0.2394366197183098</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4285714285714285</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>0.2222222222222222</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1523,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4102564102564102</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.2153846153846154</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,87 +1573,63 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2435897435897436</v>
+        <v>0.05802047781569966</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>0.2</v>
+      </c>
+      <c r="L22">
+        <v>13</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K22">
-        <v>0.2054794520547945</v>
-      </c>
-      <c r="L22">
-        <v>15</v>
-      </c>
-      <c r="M22">
-        <v>15</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.0711864406779661</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>25</v>
-      </c>
-      <c r="E23">
-        <v>0.16</v>
-      </c>
-      <c r="F23">
-        <v>0.84</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>274</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K23">
-        <v>0.1894736842105263</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>0.1882352941176471</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1697,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>69</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>0.1167883211678832</v>
+        <v>0.1039156626506024</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1723,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>121</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>0.1148148148148148</v>
+        <v>0.09540636042402827</v>
       </c>
       <c r="L26">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1749,21 +1719,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>478</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>0.0812720848056537</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1775,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>0.07331378299120235</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1801,38 +1771,38 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>316</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>0.07088989441930618</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>616</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30">
         <v>0.06984126984126984</v>
@@ -1858,36 +1828,36 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>0.06912442396313365</v>
+        <v>0.05767012687427912</v>
       </c>
       <c r="L31">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M31">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>1616</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K32">
-        <v>0.06655844155844155</v>
+        <v>0.05249679897567221</v>
       </c>
       <c r="L32">
         <v>41</v>
@@ -1905,58 +1875,32 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>575</v>
+        <v>740</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>0.04737516005121639</v>
+        <v>0.04181184668989547</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K34">
-        <v>0.04181184668989547</v>
-      </c>
-      <c r="L34">
-        <v>12</v>
-      </c>
-      <c r="M34">
-        <v>13</v>
-      </c>
-      <c r="N34">
-        <v>0.92</v>
-      </c>
-      <c r="O34">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
         <v>275</v>
       </c>
     </row>
